--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H2">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I2">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J2">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N2">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O2">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P2">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q2">
-        <v>16.58113265413263</v>
+        <v>58.977214829418</v>
       </c>
       <c r="R2">
-        <v>16.58113265413263</v>
+        <v>530.7949334647619</v>
       </c>
       <c r="S2">
-        <v>0.005918459062037307</v>
+        <v>0.01320786764328488</v>
       </c>
       <c r="T2">
-        <v>0.005918459062037307</v>
+        <v>0.01375170994990459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H3">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I3">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J3">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N3">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P3">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q3">
-        <v>25.1978816721818</v>
+        <v>38.13238315749734</v>
       </c>
       <c r="R3">
-        <v>25.1978816721818</v>
+        <v>343.191448417476</v>
       </c>
       <c r="S3">
-        <v>0.008994116037645885</v>
+        <v>0.008539695730359068</v>
       </c>
       <c r="T3">
-        <v>0.008994116037645885</v>
+        <v>0.008891323104986051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H4">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I4">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J4">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N4">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O4">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P4">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q4">
-        <v>1.437207228365353</v>
+        <v>2.243173282267222</v>
       </c>
       <c r="R4">
-        <v>1.437207228365353</v>
+        <v>20.188559540405</v>
       </c>
       <c r="S4">
-        <v>0.0005129958442630531</v>
+        <v>0.0005023556283359805</v>
       </c>
       <c r="T4">
-        <v>0.0005129958442630531</v>
+        <v>0.0005230404391651178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H5">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I5">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J5">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N5">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O5">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P5">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q5">
-        <v>2.632775781581349</v>
+        <v>4.409154570727556</v>
       </c>
       <c r="R5">
-        <v>2.632775781581349</v>
+        <v>39.682391136548</v>
       </c>
       <c r="S5">
-        <v>0.0009397413317798218</v>
+        <v>0.0009874242138661669</v>
       </c>
       <c r="T5">
-        <v>0.0009397413317798218</v>
+        <v>0.001028082030599677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H6">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I6">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J6">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N6">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O6">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P6">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q6">
-        <v>6.326904459954531</v>
+        <v>9.359951863088334</v>
       </c>
       <c r="R6">
-        <v>6.326904459954531</v>
+        <v>56.15971117853</v>
       </c>
       <c r="S6">
-        <v>0.002258321299077801</v>
+        <v>0.002096148584037982</v>
       </c>
       <c r="T6">
-        <v>0.002258321299077801</v>
+        <v>0.001454972552123709</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H7">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I7">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J7">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N7">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O7">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P7">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q7">
-        <v>838.5642011161916</v>
+        <v>2180.441200172232</v>
       </c>
       <c r="R7">
-        <v>838.5642011161916</v>
+        <v>19623.97080155009</v>
       </c>
       <c r="S7">
-        <v>0.2993165785908621</v>
+        <v>0.4883068632375475</v>
       </c>
       <c r="T7">
-        <v>0.2993165785908621</v>
+        <v>0.5084132072753269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H8">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I8">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J8">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N8">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P8">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q8">
-        <v>1274.34246833476</v>
+        <v>1409.788840280869</v>
       </c>
       <c r="R8">
-        <v>1274.34246833476</v>
+        <v>12688.09956252782</v>
       </c>
       <c r="S8">
-        <v>0.4548629992399868</v>
+        <v>0.3157203076012662</v>
       </c>
       <c r="T8">
-        <v>0.4548629992399868</v>
+        <v>0.3287202910179574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H9">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I9">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J9">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N9">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O9">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P9">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q9">
-        <v>72.68445144440905</v>
+        <v>82.93215367880221</v>
       </c>
       <c r="R9">
-        <v>72.68445144440905</v>
+        <v>746.3893831092199</v>
       </c>
       <c r="S9">
-        <v>0.02594394238883052</v>
+        <v>0.01857254386003684</v>
       </c>
       <c r="T9">
-        <v>0.02594394238883052</v>
+        <v>0.01933728010402649</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H10">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I10">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J10">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N10">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O10">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P10">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q10">
-        <v>133.148414288186</v>
+        <v>163.0104492344835</v>
       </c>
       <c r="R10">
-        <v>133.148414288186</v>
+        <v>1467.094043110352</v>
       </c>
       <c r="S10">
-        <v>0.04752591126176205</v>
+        <v>0.03650597004603776</v>
       </c>
       <c r="T10">
-        <v>0.04752591126176205</v>
+        <v>0.03800912645942907</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H11">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I11">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J11">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N11">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O11">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P11">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q11">
-        <v>319.9730497709945</v>
+        <v>346.0459218519533</v>
       </c>
       <c r="R11">
-        <v>319.9730497709945</v>
+        <v>2076.27553111172</v>
       </c>
       <c r="S11">
-        <v>0.1142109791608757</v>
+        <v>0.07749651704541513</v>
       </c>
       <c r="T11">
-        <v>0.1142109791608757</v>
+        <v>0.05379165677704793</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H12">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I12">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J12">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N12">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O12">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P12">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q12">
-        <v>0.456287307917784</v>
+        <v>2.161636545702</v>
       </c>
       <c r="R12">
-        <v>0.456287307917784</v>
+        <v>19.454728911318</v>
       </c>
       <c r="S12">
-        <v>0.0001628669047385944</v>
+        <v>0.0004840955862547517</v>
       </c>
       <c r="T12">
-        <v>0.0001628669047385944</v>
+        <v>0.0005040285282983568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H13">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I13">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J13">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N13">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P13">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q13">
-        <v>0.693407008631893</v>
+        <v>1.397630478929333</v>
       </c>
       <c r="R13">
-        <v>0.693407008631893</v>
+        <v>12.578674310364</v>
       </c>
       <c r="S13">
-        <v>0.00024750426159185</v>
+        <v>0.0003129974589900731</v>
       </c>
       <c r="T13">
-        <v>0.00024750426159185</v>
+        <v>0.0003258853273924955</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H14">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I14">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J14">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N14">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O14">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P14">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q14">
-        <v>0.03954973588534451</v>
+        <v>0.08221692664388888</v>
       </c>
       <c r="R14">
-        <v>0.03954973588534451</v>
+        <v>0.739952339795</v>
       </c>
       <c r="S14">
-        <v>1.411685785491014E-05</v>
+        <v>1.841236973110659E-05</v>
       </c>
       <c r="T14">
-        <v>1.411685785491014E-05</v>
+        <v>1.917051070399791E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H15">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I15">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J15">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N15">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O15">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P15">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q15">
-        <v>0.07244994650166345</v>
+        <v>0.1616046075302222</v>
       </c>
       <c r="R15">
-        <v>0.07244994650166345</v>
+        <v>1.454441467772</v>
       </c>
       <c r="S15">
-        <v>2.586023834204217E-05</v>
+        <v>3.619113369421954E-05</v>
       </c>
       <c r="T15">
-        <v>2.586023834204217E-05</v>
+        <v>3.768132652163278E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H16">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I16">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J16">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N16">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O16">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P16">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q16">
-        <v>0.1741066948623776</v>
+        <v>0.3430615377783333</v>
       </c>
       <c r="R16">
-        <v>0.1741066948623776</v>
+        <v>2.05836922667</v>
       </c>
       <c r="S16">
-        <v>6.214553417210485E-05</v>
+        <v>7.68281682609717E-05</v>
       </c>
       <c r="T16">
-        <v>6.214553417210485E-05</v>
+        <v>5.332774446471693E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H17">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I17">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J17">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N17">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O17">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P17">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q17">
-        <v>34.72585382254399</v>
+        <v>0.507518564634</v>
       </c>
       <c r="R17">
-        <v>34.72585382254399</v>
+        <v>4.567667081706</v>
       </c>
       <c r="S17">
-        <v>0.01239502442505303</v>
+        <v>0.0001136580974124299</v>
       </c>
       <c r="T17">
-        <v>0.01239502442505303</v>
+        <v>0.0001183380414830543</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H18">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I18">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J18">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N18">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P18">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q18">
-        <v>52.77190490167504</v>
+        <v>0.3281418497320001</v>
       </c>
       <c r="R18">
-        <v>52.77190490167504</v>
+        <v>2.953276647588</v>
       </c>
       <c r="S18">
-        <v>0.0188363705484526</v>
+        <v>7.348692426420068E-05</v>
       </c>
       <c r="T18">
-        <v>0.0188363705484526</v>
+        <v>7.651279486478543E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H19">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I19">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J19">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N19">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O19">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P19">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q19">
-        <v>3.009942032668068</v>
+        <v>0.01930325275166667</v>
       </c>
       <c r="R19">
-        <v>3.009942032668068</v>
+        <v>0.173729274765</v>
       </c>
       <c r="S19">
-        <v>0.00107436681625072</v>
+        <v>4.322937394827872E-06</v>
       </c>
       <c r="T19">
-        <v>0.00107436681625072</v>
+        <v>4.500937077113534E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H20">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I20">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J20">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N20">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O20">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P20">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q20">
-        <v>5.513820367147317</v>
+        <v>0.03794224270266667</v>
       </c>
       <c r="R20">
-        <v>5.513820367147317</v>
+        <v>0.341480184324</v>
       </c>
       <c r="S20">
-        <v>0.001968099574322836</v>
+        <v>8.497114032184593E-06</v>
       </c>
       <c r="T20">
-        <v>0.001968099574322836</v>
+        <v>8.846988078448481E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.106441</v>
+      </c>
+      <c r="H21">
+        <v>0.319323</v>
+      </c>
+      <c r="I21">
+        <v>0.0002180031293887273</v>
+      </c>
+      <c r="J21">
+        <v>0.0002207192846134107</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.756715</v>
+      </c>
+      <c r="N21">
+        <v>1.51343</v>
+      </c>
+      <c r="O21">
+        <v>0.08274218969086504</v>
+      </c>
+      <c r="P21">
+        <v>0.05672600439938289</v>
+      </c>
+      <c r="Q21">
+        <v>0.080545501315</v>
+      </c>
+      <c r="R21">
+        <v>0.4832730078900001</v>
+      </c>
+      <c r="S21">
+        <v>1.803805628508427E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.252052311000898E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18.02527</v>
+      </c>
+      <c r="H22">
+        <v>36.05054</v>
+      </c>
+      <c r="I22">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J22">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.768073999999999</v>
+      </c>
+      <c r="N22">
+        <v>14.304222</v>
+      </c>
+      <c r="O22">
+        <v>0.5213599352042468</v>
+      </c>
+      <c r="P22">
+        <v>0.5361472681932758</v>
+      </c>
+      <c r="Q22">
+        <v>85.94582122997998</v>
+      </c>
+      <c r="R22">
+        <v>515.6749273798799</v>
+      </c>
+      <c r="S22">
+        <v>0.01924745063974737</v>
+      </c>
+      <c r="T22">
+        <v>0.01335998439826291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>18.02527</v>
+      </c>
+      <c r="H23">
+        <v>36.05054</v>
+      </c>
+      <c r="I23">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J23">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.082852</v>
+      </c>
+      <c r="N23">
+        <v>9.248556000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.3370911439219029</v>
+      </c>
+      <c r="P23">
+        <v>0.3466520607784562</v>
+      </c>
+      <c r="Q23">
+        <v>55.56923967004001</v>
+      </c>
+      <c r="R23">
+        <v>333.41543802024</v>
+      </c>
+      <c r="S23">
+        <v>0.01244465620702331</v>
+      </c>
+      <c r="T23">
+        <v>0.008638048533255486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>18.02527</v>
+      </c>
+      <c r="H24">
+        <v>36.05054</v>
+      </c>
+      <c r="I24">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J24">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1813516666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.544055</v>
+      </c>
+      <c r="O24">
+        <v>0.01982970339439268</v>
+      </c>
+      <c r="P24">
+        <v>0.02039213331538707</v>
+      </c>
+      <c r="Q24">
+        <v>3.268912756616666</v>
+      </c>
+      <c r="R24">
+        <v>19.6134765397</v>
+      </c>
+      <c r="S24">
+        <v>0.0007320685988939316</v>
+      </c>
+      <c r="T24">
+        <v>0.0005081413244143532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>17.9410378961001</v>
-      </c>
-      <c r="H21">
-        <v>17.9410378961001</v>
-      </c>
-      <c r="I21">
-        <v>0.0390034619861795</v>
-      </c>
-      <c r="J21">
-        <v>0.0390034619861795</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.738554335361319</v>
-      </c>
-      <c r="N21">
-        <v>0.738554335361319</v>
-      </c>
-      <c r="O21">
-        <v>0.1212610466162259</v>
-      </c>
-      <c r="P21">
-        <v>0.1212610466162259</v>
-      </c>
-      <c r="Q21">
-        <v>13.25043131904645</v>
-      </c>
-      <c r="R21">
-        <v>13.25043131904645</v>
-      </c>
-      <c r="S21">
-        <v>0.004729600622100306</v>
-      </c>
-      <c r="T21">
-        <v>0.004729600622100306</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>18.02527</v>
+      </c>
+      <c r="H25">
+        <v>36.05054</v>
+      </c>
+      <c r="I25">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J25">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3564626666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.069388</v>
+      </c>
+      <c r="O25">
+        <v>0.0389770277885927</v>
+      </c>
+      <c r="P25">
+        <v>0.04008253331349799</v>
+      </c>
+      <c r="Q25">
+        <v>6.425335811586666</v>
+      </c>
+      <c r="R25">
+        <v>38.55201486952</v>
+      </c>
+      <c r="S25">
+        <v>0.001438945280962373</v>
+      </c>
+      <c r="T25">
+        <v>0.0009987965088691703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.02527</v>
+      </c>
+      <c r="H26">
+        <v>36.05054</v>
+      </c>
+      <c r="I26">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J26">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.756715</v>
+      </c>
+      <c r="N26">
+        <v>1.51343</v>
+      </c>
+      <c r="O26">
+        <v>0.08274218969086504</v>
+      </c>
+      <c r="P26">
+        <v>0.05672600439938289</v>
+      </c>
+      <c r="Q26">
+        <v>13.63999218805</v>
+      </c>
+      <c r="R26">
+        <v>54.5599687522</v>
+      </c>
+      <c r="S26">
+        <v>0.003054657836865877</v>
+      </c>
+      <c r="T26">
+        <v>0.001413526802636525</v>
       </c>
     </row>
   </sheetData>
